--- a/biology/Botanique/Ipomoea_purpurea/Ipomoea_purpurea.xlsx
+++ b/biology/Botanique/Ipomoea_purpurea/Ipomoea_purpurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liseron pourpre
 Le volubilis (Ipomoea purpurea) est une espèce de plantes herbacées de la famille des Convolvulaceae originaire du Mexique. Elle est largement cultivée comme fleur de jardin annuelle dans les régions tempérées où elle est appréciée pour sa végétation exubérante et ses grandes fleurs en entonnoir. Elle peut parfois devenir une plante invasive.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace dans son aire d'origine par sa souche tubéreuse, mais cultivée comme annuelle. Cousine du liseron, elle est grimpante grâce à ses tiges volubiles et peut atteindre 2 à 5 mètres de haut.
 Les feuilles, alternes, sont entières et acuminées (en forme de cœur).
@@ -549,7 +563,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses très nombreux cultivars sont aujourd'hui largement cultivés pour garnir les treillages et tonnelles. Elle peut aussi grimper sur des tiges en bambous ou un grillage.
 Cette plante spectaculaire et très facile à réussir peut se semer en intérieur fin février ou en place à l'extérieur en mai (dès que les températures ne descendent plus sous 10 °C). Elle apprécie les sols riches.
@@ -581,7 +597,9 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le langage des fleurs, le volubilis représente l'amitié dévouée. Elle symbolise aussi la liaison facile et sans conséquence ainsi que l'incertitude.
 </t>
@@ -612,7 +630,9 @@
           <t>Usage psychotrope</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les graines de certaines volubilis contiennent de l'ergine (aussi appelé LSA), un alcaloïde hallucinogène proche du LSD. Les graines sont généralement réduites en poudre (sans quoi elles ne seraient pas digérées) puis avalées. Alternativement, elles peuvent être mâchées.
 Les effets se font sentir lentement (4 heures) et longtemps (environ 6 - 10 heures). Ceux-ci sont précédés d'une heure de nausées.[réf. nécessaire]
